--- a/testes.xlsx
+++ b/testes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Testes</t>
   </si>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t xml:space="preserve">Ok, apresenta as pesquisas </t>
+  </si>
+  <si>
+    <t>Unidade: Sprint III</t>
+  </si>
+  <si>
+    <t>Editar um requerimento</t>
+  </si>
+  <si>
+    <t>Tela Inicio -&gt; Tela de pesquisa -&gt;  lapis de edicao -&gt; Tela de Edicao -&gt; editar -&gt; Salvar</t>
+  </si>
+  <si>
+    <t>OK, requerimento editado</t>
+  </si>
+  <si>
+    <t>Layout responsivo</t>
+  </si>
+  <si>
+    <t>Tela Inicio -&gt; Tela de cadastro -&gt; troca aplicação para um telefone -&gt; verificar</t>
+  </si>
+  <si>
+    <t>OK, ajuste realizado</t>
+  </si>
+  <si>
+    <t>Tela Inicio -&gt; Tela de pesquisa -&gt;  icone de exclusao -&gt; apresentação de confirmação</t>
+  </si>
+  <si>
+    <t>OK, requerimento excluido</t>
+  </si>
+  <si>
+    <t>Excluir um requerimento</t>
+  </si>
+  <si>
+    <t>Excluir um requerimento em cascata</t>
+  </si>
+  <si>
+    <t>Ok, toda depencias excluidas juntas</t>
   </si>
 </sst>
 </file>
@@ -162,13 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,8 +729,196 @@
       <c r="F19" s="3"/>
       <c r="H19" s="5"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F10 A13:F13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:F12">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:F14 A18:F19 A16 C16:F16">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:F15">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17 A17">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:F23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:F22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:F24 A29:F29 A26 C26:F26 A28 C28:F28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -703,7 +928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F12">
+  <conditionalFormatting sqref="A25:F25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -713,7 +938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:F14 A18:F19 A16 C16:F16">
+  <conditionalFormatting sqref="B26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -723,7 +948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F15">
+  <conditionalFormatting sqref="C27:F27 A27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -733,17 +958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:F17 A17">
+  <conditionalFormatting sqref="B27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -753,7 +968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
